--- a/data/trans_bre/IP16B08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16B08-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 18,35</t>
+          <t>-8,66; 18,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 22,39</t>
+          <t>-8,77; 19,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,59</t>
+          <t>0,0; 62,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 159,87</t>
+          <t>0,0; 169,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 7,39</t>
+          <t>-14,11; 7,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,43</t>
+          <t>0,0; 26,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 7,82</t>
+          <t>-16,93; 7,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,7</t>
+          <t>0,0; 37,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/IP16B08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16B08-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 18,08</t>
+          <t>-8,83; 14,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 19,2</t>
+          <t>-8,98; 16,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,96</t>
+          <t>0,0; 62,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 169,64</t>
+          <t>0,0; 167,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 7,13</t>
+          <t>-13,95; 7,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,97</t>
+          <t>0,0; 26,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 7,62</t>
+          <t>-16,85; 7,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,0</t>
+          <t>0,0; 36,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
